--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_gradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_gradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2167298512912771</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2153782838817867</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2775177606774257</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2822201182289649</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2168321301249942</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006588740818819992</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006586172099652036</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006704271177811388</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006607854086547724</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006586643694656902</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01661924241026531</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01651568172790844</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0212769733757166</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02103184367974607</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01661391070608537</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004636591479915645</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004642229064823943</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004383036238677932</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004323411052933988</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004635294599703706</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005029256178647946</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005037855841607218</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004642478923551989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004564919889324319</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005027569227479712</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006428742646936633</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006411602878585237</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.007199618504203374</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.007087371059145729</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.00642630120397056</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006462410967330683</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006474857652149754</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005902610587692672</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005837549896520166</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006460995861920048</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2665118196012035</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2670143673247806</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.24390930250253</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2421723316457945</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2664740395405679</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1820125322792759</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.182491273295172</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1604807423815619</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1708556430852883</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1822381920110748</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002519515147785362</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002525005952167515</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002272561487245679</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002187963762078424</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002517675101261806</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01968175068081006</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01970950007228743</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01843369787722501</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01759069552566143</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01966341492126958</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.00257678029894843</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.00257579821695007</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002620950283447107</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002559407585048364</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002575441711793578</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01950842263038038</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01955223630413513</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01753786488285128</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01705610289993242</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01949794404528723</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2333765126237941</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2338962892114419</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2099991125110673</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1976869739401848</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2331087169149846</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003161683980047648</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003170062323859321</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002784860744407518</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002905143132596699</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003164300187395951</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002794609432756029</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002802628518244676</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002433944149899444</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002463965453033763</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002795262412423696</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002375477293463257</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002399250201464529</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001306270262219852</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001328946718047437</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002375970518708138</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.00511868698211896</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.004970809775145895</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01176959184608323</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01271579405759406</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005139267394729632</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>5.302635839810327e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5.420535432967192e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.84864300024433e-08</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5.303037929715128e-06</v>
       </c>
     </row>
